--- a/Bot2/liugji@digitalchina.com_Bot2_Output.xlsx
+++ b/Bot2/liugji@digitalchina.com_Bot2_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\Bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7AFB87-7D99-4B74-AE2A-2ED6CF508799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0664EEBF-3D18-4B29-ABAB-5371314E68AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
